--- a/data/trans_dic/P07_R2-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P07_R2-Dificultad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.6850221585373418</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.6235886052483023</v>
+        <v>0.6235886052483024</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.6175273278104244</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6652654668802086</v>
+        <v>0.6613562254908111</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7610103900949086</v>
+        <v>0.7583104235936842</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7587036774062014</v>
+        <v>0.7596211809202243</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6427038476324001</v>
+        <v>0.6448036129231752</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.5291895048733037</v>
+        <v>0.5265382969962773</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6103595795640635</v>
+        <v>0.6117642767060575</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.6550059299436456</v>
+        <v>0.6562213619598238</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5911541236880966</v>
+        <v>0.5897791391219445</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.5923238157810824</v>
+        <v>0.5936685046933931</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.6933829585226373</v>
+        <v>0.6921312785890004</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.7114183108409445</v>
+        <v>0.7115475620046471</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.6262975602758486</v>
+        <v>0.6230875136644557</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7435854854487989</v>
+        <v>0.738720264791543</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8149180263972</v>
+        <v>0.8103541782059192</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.806998805698985</v>
+        <v>0.8062723517411252</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7273258574999203</v>
+        <v>0.7295163507867132</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5945774453501469</v>
+        <v>0.5957984025864562</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6696575237101531</v>
+        <v>0.6701702760696922</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.7101238129150902</v>
+        <v>0.7104174020674845</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.65778034694889</v>
+        <v>0.6576651076177498</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6421376589366505</v>
+        <v>0.6421252618858232</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.7327417420492071</v>
+        <v>0.7315618373849715</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.750613966354744</v>
+        <v>0.747833538654843</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.6803639205395358</v>
+        <v>0.6740587092917757</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.7899230325620235</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.7194572942649686</v>
+        <v>0.7194572942649685</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.7954104686852864</v>
@@ -833,7 +833,7 @@
         <v>0.8227504436259077</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.7588953514841495</v>
+        <v>0.7588953514841493</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8275091604916782</v>
+        <v>0.8299494156075967</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8150633336881808</v>
+        <v>0.8147278496466542</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8338859677878482</v>
+        <v>0.8360695142406198</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.7771134150288599</v>
+        <v>0.7760918836182442</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.7119920746584509</v>
+        <v>0.7082730800417009</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.7034054596769096</v>
+        <v>0.7032190696078361</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.7601589452959855</v>
+        <v>0.7617518346763579</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.6982147440678601</v>
+        <v>0.6988371665993703</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.7775927728236119</v>
+        <v>0.7790427825826879</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.7641402131834294</v>
+        <v>0.7660597217041129</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.8054287603824558</v>
+        <v>0.8035457805252533</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.7416254586550605</v>
+        <v>0.741451043359647</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8702231515067744</v>
+        <v>0.8726118614729228</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8644980801343078</v>
+        <v>0.8637561244662026</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8805510972414613</v>
+        <v>0.8831755694022577</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8298005379086882</v>
+        <v>0.8283496203687849</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7659969219274351</v>
+        <v>0.7621771976523984</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7582211430949899</v>
+        <v>0.7595189348040765</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8169867402001945</v>
+        <v>0.8160990121396366</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.7400436475274185</v>
+        <v>0.7425508939822431</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.8150267032075862</v>
+        <v>0.811824268751946</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.8018681894718001</v>
+        <v>0.8045907653052827</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.8400217711700583</v>
+        <v>0.8395741566770737</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.7760734951375023</v>
+        <v>0.7753741344521908</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.8828064302995409</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.8639399837479841</v>
+        <v>0.8639399837479842</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.7891590087111889</v>
@@ -969,7 +969,7 @@
         <v>0.8452777715377569</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.8289206544192079</v>
+        <v>0.828920654419208</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8707059968695818</v>
+        <v>0.8713774206508393</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8231791368023512</v>
+        <v>0.823498215689721</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8596620724700237</v>
+        <v>0.8580161831110472</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8439084955004491</v>
+        <v>0.8415610193451272</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7590631457621417</v>
+        <v>0.7618756797636957</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7764115951826978</v>
+        <v>0.7727825394194064</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7720883895162279</v>
+        <v>0.7742324954118175</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.7737357789757571</v>
+        <v>0.7713009453153615</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8261490950976675</v>
+        <v>0.8250201394382142</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.8080528364746341</v>
+        <v>0.8102114280125292</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.824089715122601</v>
+        <v>0.8233421774354319</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.8141696486549603</v>
+        <v>0.8145900865679108</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9058812979976317</v>
+        <v>0.9079110012915768</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8736826246426302</v>
+        <v>0.875222036171992</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9037086794922726</v>
+        <v>0.9030228987782553</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.883775048118165</v>
+        <v>0.8831619709009018</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8142620886070057</v>
+        <v>0.8148253773495026</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8312235539145005</v>
+        <v>0.8300838195639528</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8327503871523207</v>
+        <v>0.833422246722808</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8142403845348832</v>
+        <v>0.8133026886744654</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8580433354265004</v>
+        <v>0.8584229685719479</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.8472188331008557</v>
+        <v>0.8462745912513965</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.8630523649459756</v>
+        <v>0.8625355731364501</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.8426134084481538</v>
+        <v>0.8437290964310801</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8745964892119252</v>
+        <v>0.8764235536996482</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8449768944048055</v>
+        <v>0.8422373109459563</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8510396078045555</v>
+        <v>0.8516042554536387</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8522027538853215</v>
+        <v>0.8531881195022588</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8129495665387281</v>
+        <v>0.8113078106715468</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.7801663499614587</v>
+        <v>0.7782223336885794</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7933283847467041</v>
+        <v>0.7953812533988018</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.8327505674138065</v>
+        <v>0.8320683323658107</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.8553462794615101</v>
+        <v>0.859188982662531</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.8229270666814</v>
+        <v>0.8249366165078904</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.8319282650507253</v>
+        <v>0.8327957178016622</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.8496451635987806</v>
+        <v>0.8506949185698455</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9306412987552281</v>
+        <v>0.9297370242276779</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9077007378525304</v>
+        <v>0.9057662791129619</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9103965008428988</v>
+        <v>0.9108782912120927</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8964314712918124</v>
+        <v>0.8965667884032863</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8940325865682845</v>
+        <v>0.889039141338284</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8570314009732957</v>
+        <v>0.8541543589155225</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8652850779730858</v>
+        <v>0.8651809294334829</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8700113186198457</v>
+        <v>0.8689741592792393</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9024399672526142</v>
+        <v>0.9050449731773391</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.8735801106369421</v>
+        <v>0.873299509120065</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.8773441216395015</v>
+        <v>0.8786794964525333</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.8781763299860265</v>
+        <v>0.8787166669558609</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.801444888899185</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.7904766251785245</v>
+        <v>0.7904766251785246</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8327534026247218</v>
+        <v>0.830964229027807</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8183315859342298</v>
+        <v>0.8196209586771287</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.830559769608888</v>
+        <v>0.8290451643374394</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8135012517681263</v>
+        <v>0.8137862290860798</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.7025185240585051</v>
+        <v>0.702171106092035</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.7176891108563043</v>
+        <v>0.7184133408987313</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.7456151169339358</v>
+        <v>0.7472229813049063</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.7450593923553028</v>
+        <v>0.7461926211456281</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.7688077094468776</v>
+        <v>0.7706469942142725</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.7711603891807436</v>
+        <v>0.7725312620250298</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.7893859505812011</v>
+        <v>0.7916903749115795</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.7820956558375514</v>
+        <v>0.7815693765113189</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8582216401350417</v>
+        <v>0.8572917997698891</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8464843565926291</v>
+        <v>0.8470872829907419</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8549633805492739</v>
+        <v>0.854395701860724</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8368730396985602</v>
+        <v>0.8389958107883396</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7326945905868677</v>
+        <v>0.7325257756382806</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7487317397408787</v>
+        <v>0.7486739248499751</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7766652756909994</v>
+        <v>0.7756882184239559</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.7682930936688674</v>
+        <v>0.7690490324992655</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.79018094521744</v>
+        <v>0.7918453413224912</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.7918385381243614</v>
+        <v>0.7921825065689796</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.8117113000096294</v>
+        <v>0.8112820583036752</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.7990060802034681</v>
+        <v>0.7993961155836081</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>388609</v>
+        <v>386325</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>793648</v>
+        <v>790832</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>855815</v>
+        <v>856850</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>320541</v>
+        <v>321589</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>488089</v>
+        <v>485644</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>683559</v>
+        <v>685132</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>822970</v>
+        <v>824498</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>368632</v>
+        <v>367774</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>892320</v>
+        <v>894346</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1499660</v>
+        <v>1496953</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1696326</v>
+        <v>1696635</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>702906</v>
+        <v>699304</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>434359</v>
+        <v>431517</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>849867</v>
+        <v>845108</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>910292</v>
+        <v>909473</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>362746</v>
+        <v>363838</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>548398</v>
+        <v>549525</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>749968</v>
+        <v>750542</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>892222</v>
+        <v>892591</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>410179</v>
+        <v>410107</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>967364</v>
+        <v>967345</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1584786</v>
+        <v>1582234</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>1789786</v>
+        <v>1783156</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>763586</v>
+        <v>756510</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>891069</v>
+        <v>893697</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>792309</v>
+        <v>791983</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>755408</v>
+        <v>757386</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>746135</v>
+        <v>745155</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>752959</v>
+        <v>749026</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>766990</v>
+        <v>766787</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>765081</v>
+        <v>766684</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>779102</v>
+        <v>779797</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1659653</v>
+        <v>1662748</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1576023</v>
+        <v>1579982</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1540273</v>
+        <v>1536672</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1539604</v>
+        <v>1539242</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>937064</v>
+        <v>939636</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>840364</v>
+        <v>839643</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>797682</v>
+        <v>800059</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>796722</v>
+        <v>795329</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>810071</v>
+        <v>806031</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>826761</v>
+        <v>828176</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>822277</v>
+        <v>821383</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>825777</v>
+        <v>828575</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1739550</v>
+        <v>1732715</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1653836</v>
+        <v>1659452</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1606427</v>
+        <v>1605571</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1611118</v>
+        <v>1609666</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>976579</v>
+        <v>977332</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>727797</v>
+        <v>728079</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>707383</v>
+        <v>706029</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>883133</v>
+        <v>880676</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>754463</v>
+        <v>757259</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>679978</v>
+        <v>676800</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>595326</v>
+        <v>596979</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>810598</v>
+        <v>808047</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1747746</v>
+        <v>1745358</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1422112</v>
+        <v>1425911</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1313533</v>
+        <v>1312342</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1704970</v>
+        <v>1705850</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1016031</v>
+        <v>1018308</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>772448</v>
+        <v>773809</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>743628</v>
+        <v>743063</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>924852</v>
+        <v>924210</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>809328</v>
+        <v>809888</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>727982</v>
+        <v>726984</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>642100</v>
+        <v>642618</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>853032</v>
+        <v>852050</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1815220</v>
+        <v>1816023</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>1491042</v>
+        <v>1489380</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>1375636</v>
+        <v>1374813</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>1764534</v>
+        <v>1766871</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>391120</v>
+        <v>391937</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>425043</v>
+        <v>423665</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>430372</v>
+        <v>430657</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>831689</v>
+        <v>832651</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>277344</v>
+        <v>276784</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>352440</v>
+        <v>351562</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>386824</v>
+        <v>387825</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>757561</v>
+        <v>756940</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>674319</v>
+        <v>677349</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>785708</v>
+        <v>787626</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>826352</v>
+        <v>827213</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1602123</v>
+        <v>1604103</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>416183</v>
+        <v>415778</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>456594</v>
+        <v>455621</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>460388</v>
+        <v>460632</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>874853</v>
+        <v>874986</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>305006</v>
+        <v>303303</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>387164</v>
+        <v>385864</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>421910</v>
+        <v>421859</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>791457</v>
+        <v>790514</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>711446</v>
+        <v>713499</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>834070</v>
+        <v>833802</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>871463</v>
+        <v>872790</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1655923</v>
+        <v>1656942</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2689581</v>
+        <v>2683803</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2784065</v>
+        <v>2788451</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2792714</v>
+        <v>2787621</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2832029</v>
+        <v>2833021</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2328827</v>
+        <v>2327675</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2539091</v>
+        <v>2541653</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2625731</v>
+        <v>2631393</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>2754321</v>
+        <v>2758510</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>5031626</v>
+        <v>5043663</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>5351847</v>
+        <v>5361361</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>5434142</v>
+        <v>5450005</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>5613933</v>
+        <v>5610155</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2771837</v>
+        <v>2768834</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2879844</v>
+        <v>2881895</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2874770</v>
+        <v>2872861</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>2913393</v>
+        <v>2920783</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>2428860</v>
+        <v>2428300</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>2648916</v>
+        <v>2648711</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>2735076</v>
+        <v>2731635</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>2840211</v>
+        <v>2843005</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>5171508</v>
+        <v>5182400</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>5495353</v>
+        <v>5497740</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>5587830</v>
+        <v>5584875</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>5735317</v>
+        <v>5738116</v>
       </c>
     </row>
     <row r="24">
